--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.ely.garchitorena\Documents\UiPath\GetUpcomingBirthdays\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC91F1-3125-425D-B317-B1CA92F60347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FE1945-CFDB-4EA9-B727-A3CD95FE5072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -127,18 +127,9 @@
     <t>BirthdayList_Path</t>
   </si>
   <si>
-    <t>Filepath of the excel spreadsheet</t>
-  </si>
-  <si>
-    <t>C:\Users\%UserProfile%\Documents\UiPath\Birthday Greeting Postcard\C-ET Birthday List.xlsx</t>
-  </si>
-  <si>
     <t>BirthdayList_Range</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>BirthdayList_SheetName</t>
   </si>
   <si>
@@ -148,7 +139,28 @@
     <t>Sheet name of list of birthdays in the excel spreadsheet</t>
   </si>
   <si>
-    <t>Range to be read in the birthday list excel spreadsheet</t>
+    <t>Filepath of the excel spreadsheet. Where UserProfile is the name of the logged user</t>
+  </si>
+  <si>
+    <t>C:\Users\{{UserProfile}}\Documents\UiPath\Birthday Greeting Postcard\C-ET Birthday List.xlsx</t>
+  </si>
+  <si>
+    <t>Range to be read in the birthday list excel spreadsheet. Keep the value emptied to read all cells in the spreadsheet</t>
+  </si>
+  <si>
+    <t>UpcomingBirthdayRange</t>
+  </si>
+  <si>
+    <t>Value in number of days to determine upcoming birthdays within range (DateToday - X days)</t>
+  </si>
+  <si>
+    <t>Exception_BirthdayListNotExist</t>
+  </si>
+  <si>
+    <t>Exception message if the list of birthday excel file does not exist</t>
+  </si>
+  <si>
+    <t>Birthday master list does not exist</t>
   </si>
 </sst>
 </file>
@@ -526,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -600,37 +612,44 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1630,7 +1649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1754,7 +1775,17 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FE1945-CFDB-4EA9-B727-A3CD95FE5072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7C653D-BA19-4B8C-AA81-1BDB733F35D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Range to be read in the birthday list excel spreadsheet. Keep the value emptied to read all cells in the spreadsheet</t>
   </si>
   <si>
-    <t>UpcomingBirthdayRange</t>
-  </si>
-  <si>
     <t>Value in number of days to determine upcoming birthdays within range (DateToday - X days)</t>
   </si>
   <si>
@@ -161,6 +158,42 @@
   </si>
   <si>
     <t>Birthday master list does not exist</t>
+  </si>
+  <si>
+    <t>UpcomingBirthday_Range</t>
+  </si>
+  <si>
+    <t>UpcomingBirthday_OutputFolder</t>
+  </si>
+  <si>
+    <t>C:\Users\{{UserProfile}}\Documents\UiPath\Birthday Greeting Postcard\Upcoming birthdays</t>
+  </si>
+  <si>
+    <t>Filepath of the upcoming birthday celebrant's team mates</t>
+  </si>
+  <si>
+    <t>UpcomingBirthday_IncludeTeam</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Included team when consolidating the celebrant's team members. Only accepts 1 team. Write "n/a" if you do not wish to include other team.</t>
+  </si>
+  <si>
+    <t>BirthdayList_Index_EID</t>
+  </si>
+  <si>
+    <t>BirthdayList_Index_Birthday</t>
+  </si>
+  <si>
+    <t>BirthdayList_Index_Team</t>
+  </si>
+  <si>
+    <t>Column index of "Birthday" in BirthdayList datatable</t>
+  </si>
+  <si>
+    <t>Column index of "Team" in BirthdayList datatable</t>
   </si>
 </sst>
 </file>
@@ -536,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -641,21 +674,71 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1638,6 +1721,10 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1777,13 +1864,13 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7C653D-BA19-4B8C-AA81-1BDB733F35D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79A67C-310A-48C3-8BA9-B098E04E5B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>Column index of "Team" in BirthdayList datatable</t>
+  </si>
+  <si>
+    <t>Email_Subject</t>
+  </si>
+  <si>
+    <t>Email_Body</t>
+  </si>
+  <si>
+    <t>Email subject to be sent to the team members and management</t>
+  </si>
+  <si>
+    <t>Email body to be sent to the team members and management</t>
+  </si>
+  <si>
+    <t>Testing - Automated Birthday Greeting Postcard</t>
   </si>
 </sst>
 </file>
@@ -572,7 +587,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -739,22 +754,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79A67C-310A-48C3-8BA9-B098E04E5B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39670EBC-89AD-488F-92DC-B269FF8D36CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Testing - Automated Birthday Greeting Postcard</t>
+  </si>
+  <si>
+    <t>Column index of "EID" in BirthdayList datatable</t>
+  </si>
+  <si>
+    <t>lorelie.a.pangan;sarah.c.c.layug;johnell.m.hernandez</t>
+  </si>
+  <si>
+    <t>UpcomingBirthday_MandatoryEIDGetAll</t>
+  </si>
+  <si>
+    <t>If one of the upcoming bday celebrant is here, all resources will be sent an email to ask for birthday greetings</t>
   </si>
 </sst>
 </file>
@@ -584,11 +596,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -706,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -754,30 +764,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1760,6 +1780,7 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
     <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39670EBC-89AD-488F-92DC-B269FF8D36CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F32DC74-5292-437E-B572-096EE7755D98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="1905" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -175,9 +175,6 @@
     <t>UpcomingBirthday_IncludeTeam</t>
   </si>
   <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>Included team when consolidating the celebrant's team members. Only accepts 1 team. Write "n/a" if you do not wish to include other team.</t>
   </si>
   <si>
@@ -202,25 +199,37 @@
     <t>Email_Body</t>
   </si>
   <si>
-    <t>Email subject to be sent to the team members and management</t>
-  </si>
-  <si>
     <t>Email body to be sent to the team members and management</t>
   </si>
   <si>
-    <t>Testing - Automated Birthday Greeting Postcard</t>
-  </si>
-  <si>
     <t>Column index of "EID" in BirthdayList datatable</t>
   </si>
   <si>
+    <t>UpcomingBirthday_MandatoryEIDGetAll</t>
+  </si>
+  <si>
+    <t>If one of the upcoming bday celebrant is here, all resources will be sent an email to ask for birthday greetings</t>
+  </si>
+  <si>
+    <t>Management I</t>
+  </si>
+  <si>
+    <t>Testing - upcoming birthday for: {0}</t>
+  </si>
+  <si>
+    <t>Email subject to be sent to the team members and management. Where 0 is the value for the celebrant's name.</t>
+  </si>
+  <si>
+    <t>BirthdayList_Index_ResourceName</t>
+  </si>
+  <si>
+    <t>Column index of "Resource Name" in BirthdayList datatable</t>
+  </si>
+  <si>
     <t>lorelie.a.pangan;sarah.c.c.layug;johnell.m.hernandez</t>
   </si>
   <si>
-    <t>UpcomingBirthday_MandatoryEIDGetAll</t>
-  </si>
-  <si>
-    <t>If one of the upcoming bday celebrant is here, all resources will be sent an email to ask for birthday greetings</t>
+    <t>Testing - Please send your birthday greetings &lt;a href="https://ts.accenture.com/sites/Chevron_PDC/CET/Lists/CET%20Birthday%20Greetings/AllItems.aspx"&gt;here&lt;/href&gt;</t>
   </si>
 </sst>
 </file>
@@ -596,9 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -699,13 +710,13 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -713,92 +724,102 @@
         <v>51</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>55</v>
+      <c r="C13" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
     </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1781,6 +1802,7 @@
     <row r="1001" ht="14.25" customHeight="1"/>
     <row r="1002" ht="14.25" customHeight="1"/>
     <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F32DC74-5292-437E-B572-096EE7755D98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43071B69-D580-4EEF-A0E9-FA53B4C13ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1905" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43071B69-D580-4EEF-A0E9-FA53B4C13ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB044F-45F8-43BD-B1FD-578091BEBA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="1695" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Management I</t>
   </si>
   <si>
-    <t>Testing - upcoming birthday for: {0}</t>
-  </si>
-  <si>
     <t>Email subject to be sent to the team members and management. Where 0 is the value for the celebrant's name.</t>
   </si>
   <si>
@@ -229,14 +226,102 @@
     <t>lorelie.a.pangan;sarah.c.c.layug;johnell.m.hernandez</t>
   </si>
   <si>
-    <t>Testing - Please send your birthday greetings &lt;a href="https://ts.accenture.com/sites/Chevron_PDC/CET/Lists/CET%20Birthday%20Greetings/AllItems.aspx"&gt;here&lt;/href&gt;</t>
+    <t>ConsolidateEmailEachResource</t>
+  </si>
+  <si>
+    <t>A separate email will be sent to each of these resources (EID) separated by semi-colon (;) for the consolidation of upcoming birthdays</t>
+  </si>
+  <si>
+    <t>EmailConsolidated_Subject</t>
+  </si>
+  <si>
+    <t>EmailConsolidated_Body</t>
+  </si>
+  <si>
+    <t>[C-ET] Upcoming Birthdays: {0}</t>
+  </si>
+  <si>
+    <t>[C-ET] Upcoming Birthdays</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email body to be sent to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ConsolidateEmailResource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Where 0 is the value for the name of celebrants.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email subject to be sent to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ConsolidateEmailResource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Hi All,&lt;br&gt;
+&lt;br&gt;
+Good Day! We've identified that one (or more) of your colleagues will celebrate his/her birthday soon. &lt;br&gt;
+Make their day extra special by sending them your greetings via the &lt;b&gt;C-ET Birthday Postcard&lt;/b&gt;! &lt;br&gt;
+&lt;br&gt;
+Use the links below to log your greetings:&lt;br&gt;
+&lt;br&gt;
+{0}
+&lt;br&gt;
+(This is an automated email. Do not forward)</t>
+  </si>
+  <si>
+    <t>Hi All,&lt;br&gt;
+&lt;br&gt;
+Good day! We've identified that one (or more) of your colleagues will celebrate his/her birthday soon. &lt;br&gt;
+Make their day extra special by sending them your greetings via the &lt;b&gt;C-ET Birthday Postcard&lt;/b&gt;! &lt;br&gt;
+&lt;br&gt;
+Use this &lt;a href="https://ts.accenture.com/sites/Chevron_PDC/CET/Lists/CET%20Birthday%20Greetings/AllItems.aspx"&gt;link&lt;/a&gt;  to log you greetings. &lt;br&gt;
+&lt;br&gt;
+(This is an automated email. Do not forward)</t>
+  </si>
+  <si>
+    <t>johnell.m.hernandez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,6 +332,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -255,6 +341,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -605,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -710,13 +803,13 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -791,7 +884,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -803,28 +896,58 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
-        <v>67</v>
+      <c r="B21" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1803,6 +1926,8 @@
     <row r="1002" ht="14.25" customHeight="1"/>
     <row r="1003" ht="14.25" customHeight="1"/>
     <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB044F-45F8-43BD-B1FD-578091BEBA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17434A8-9585-4834-B053-51EFD4CD9FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="1695" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>johnell.m.hernandez</t>
+  </si>
+  <si>
+    <t>BirthdayList_Index_Nickname</t>
+  </si>
+  <si>
+    <t>Column index of "Nickname" in BirthdayList datatable</t>
   </si>
 </sst>
 </file>
@@ -698,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -814,141 +820,151 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1928,6 +1944,7 @@
     <row r="1004" ht="14.25" customHeight="1"/>
     <row r="1005" ht="14.25" customHeight="1"/>
     <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17434A8-9585-4834-B053-51EFD4CD9FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4A54A-E10C-411A-B023-E464DC077B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="1695" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -315,12 +315,6 @@
   </si>
   <si>
     <t>johnell.m.hernandez</t>
-  </si>
-  <si>
-    <t>BirthdayList_Index_Nickname</t>
-  </si>
-  <si>
-    <t>Column index of "Nickname" in BirthdayList datatable</t>
   </si>
 </sst>
 </file>
@@ -704,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -820,151 +814,141 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1944,7 +1928,6 @@
     <row r="1004" ht="14.25" customHeight="1"/>
     <row r="1005" ht="14.25" customHeight="1"/>
     <row r="1006" ht="14.25" customHeight="1"/>
-    <row r="1007" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CET_BirthdayGreetings\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4A54A-E10C-411A-B023-E464DC077B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F6389-1794-407E-B1DB-25857BBFDC01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="1695" windowWidth="23895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -314,7 +314,22 @@
 (This is an automated email. Do not forward)</t>
   </si>
   <si>
-    <t>johnell.m.hernandez</t>
+    <t>Sharepoint_BirthdayGreetings</t>
+  </si>
+  <si>
+    <t>https://ts.accenture.com/sites/Chevron_PDC/CET/Lists/CET%20Birthday%20Greetings/AllItems.aspx</t>
+  </si>
+  <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>Timeout for a short duration</t>
+  </si>
+  <si>
+    <t>johnell.m.hernandez;lorelie.a.pangan</t>
+  </si>
+  <si>
+    <t>URL to be opened during initialize state for the home page of Birthday Greetings.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -384,6 +399,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -919,7 +935,7 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
@@ -949,7 +965,17 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1940,7 +1966,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2077,7 +2103,17 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
